--- a/a/shadowbane/vorringia/bounty/bounty.xlsx
+++ b/a/shadowbane/vorringia/bounty/bounty.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="105">
   <si>
     <t>任务购买</t>
   </si>
@@ -173,6 +173,24 @@
     <t>大树</t>
   </si>
   <si>
+    <t>Veteran Challenge Bounty: Captain Skarduhl</t>
+  </si>
+  <si>
+    <t>地精区（兽人角斗）</t>
+  </si>
+  <si>
+    <t>Veteran Challenge Bounty: Graufnod</t>
+  </si>
+  <si>
+    <t>Veteran Challenge Bounty: Yikk</t>
+  </si>
+  <si>
+    <t>Veteran Challenge Bounty: Gund Earthshaker</t>
+  </si>
+  <si>
+    <t>Veteran Challenge Bounty: Chief Duruuk</t>
+  </si>
+  <si>
     <t>号角</t>
   </si>
   <si>
@@ -188,7 +206,7 @@
     <t>The Doomplain</t>
   </si>
   <si>
-    <t>大剑沙漠区</t>
+    <t>沙漠（大剑，太阳）</t>
   </si>
   <si>
     <t>Leth'khalivar Desert</t>
@@ -197,9 +215,6 @@
     <t>Aeran Belendor</t>
   </si>
   <si>
-    <t>地精区</t>
-  </si>
-  <si>
     <t>Fellgrim Forest</t>
   </si>
   <si>
@@ -209,7 +224,7 @@
     <t>Grimscairne</t>
   </si>
   <si>
-    <t>符石雪山区</t>
+    <t>雪山区（符石）</t>
   </si>
   <si>
     <t>Hregend Wildlands</t>
@@ -221,7 +236,7 @@
     <t>Bone Marches</t>
   </si>
   <si>
-    <t>红人区</t>
+    <t>沙漠（大法师，剑舞）</t>
   </si>
   <si>
     <t>Kharsoom</t>
@@ -233,19 +248,19 @@
     <t>Valkos Wilds</t>
   </si>
   <si>
-    <t>浪鞋沼泽区</t>
+    <t>沼泽区（浪鞋）</t>
   </si>
   <si>
     <t>Thollok Marsh</t>
   </si>
   <si>
-    <t>龙区</t>
+    <t>龙区（黑骑）</t>
   </si>
   <si>
     <t>Ashfell Plain</t>
   </si>
   <si>
-    <t>龙沼泽</t>
+    <t>沼泽（大龙）</t>
   </si>
   <si>
     <t>The Black Bog</t>
@@ -287,7 +302,7 @@
     <t>Vale of Nar Addad</t>
   </si>
   <si>
-    <t>小火山</t>
+    <t>小火山（影妖）</t>
   </si>
   <si>
     <t>Greensward Pyre</t>
@@ -314,7 +329,7 @@
     <t>Aurrochs Skrae</t>
   </si>
   <si>
-    <t>血先战法区</t>
+    <t>沙漠（血先，战法）</t>
   </si>
   <si>
     <t>The Blood Sands</t>
@@ -325,12 +340,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,40 +366,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -403,10 +397,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -417,32 +426,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,10 +457,42 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -471,30 +503,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -517,187 +525,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,21 +716,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -746,6 +739,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,23 +802,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,8 +811,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,152 +821,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -981,15 +989,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1340,10 +1339,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1353,7 +1352,7 @@
     <col min="3" max="3" width="5.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="51.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="22.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3"/>
+    <col min="6" max="6" width="16.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="20" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
@@ -1388,27 +1387,27 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="str">
+      <c r="C2" s="3" t="str">
         <f>VLOOKUP(B2,config!A:B,2,FALSE)&amp;"R"</f>
         <v>6R</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="10" t="str">
-        <f>RIGHT(D2,LEN(D2)-26)</f>
+      <c r="E2" s="4" t="str">
+        <f t="shared" ref="E2:E8" si="0">RIGHT(D2,LEN(D2)-26)</f>
         <v>Nehruan Samor</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8" t="str">
+      <c r="G2" s="2" t="str">
         <f>VLOOKUP(F2,zone!A:B,2,FALSE)</f>
         <v>Plain of Ashes</v>
       </c>
@@ -1420,27 +1419,27 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="str">
+      <c r="C3" s="3" t="str">
         <f>VLOOKUP(B3,config!A:B,2,FALSE)&amp;"R"</f>
         <v>6R</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="10" t="str">
-        <f>RIGHT(D3,LEN(D3)-26)</f>
+      <c r="E3" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>Lady Navrezim</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="8" t="str">
+      <c r="G3" s="2" t="str">
         <f>VLOOKUP(F3,zone!A:B,2,FALSE)</f>
         <v>Plain of Ashes</v>
       </c>
@@ -1452,27 +1451,27 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>10</v>
       </c>
-      <c r="C4" s="9" t="str">
+      <c r="C4" s="3" t="str">
         <f>VLOOKUP(B4,config!A:B,2,FALSE)&amp;"R"</f>
         <v>6R</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="10" t="str">
-        <f>RIGHT(D4,LEN(D4)-26)</f>
+      <c r="E4" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>Lord Zerranoc</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="8" t="str">
+      <c r="G4" s="2" t="str">
         <f>VLOOKUP(F4,zone!A:B,2,FALSE)</f>
         <v>Plain of Ashes</v>
       </c>
@@ -1484,27 +1483,27 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2">
         <v>30</v>
       </c>
-      <c r="C5" s="9" t="str">
+      <c r="C5" s="3" t="str">
         <f>VLOOKUP(B5,config!A:B,2,FALSE)&amp;"R"</f>
         <v>7R</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="10" t="str">
-        <f>RIGHT(D5,LEN(D5)-26)</f>
+      <c r="E5" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>Obsidian Colossus</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="8" t="str">
+      <c r="G5" s="2" t="str">
         <f>VLOOKUP(F5,zone!A:B,2,FALSE)</f>
         <v>Plain of Ashes</v>
       </c>
@@ -1516,27 +1515,27 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="str">
+      <c r="C6" s="3" t="str">
         <f>VLOOKUP(B6,config!A:B,2,FALSE)&amp;"R"</f>
         <v>6R</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="10" t="str">
-        <f>RIGHT(D6,LEN(D6)-26)</f>
+      <c r="E6" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>Paragon Arlior</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="8" t="str">
+      <c r="G6" s="2" t="str">
         <f>VLOOKUP(F6,zone!A:B,2,FALSE)</f>
         <v>Bone Marches</v>
       </c>
@@ -1548,27 +1547,27 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>10</v>
       </c>
-      <c r="C7" s="9" t="str">
+      <c r="C7" s="3" t="str">
         <f>VLOOKUP(B7,config!A:B,2,FALSE)&amp;"R"</f>
         <v>6R</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="10" t="str">
-        <f>RIGHT(D7,LEN(D7)-26)</f>
+      <c r="E7" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>Zharathak Almriniand</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="8" t="str">
+      <c r="G7" s="2" t="str">
         <f>VLOOKUP(F7,zone!A:B,2,FALSE)</f>
         <v>Bone Marches</v>
       </c>
@@ -1580,27 +1579,27 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2">
         <v>10</v>
       </c>
-      <c r="C8" s="9" t="str">
+      <c r="C8" s="3" t="str">
         <f>VLOOKUP(B8,config!A:B,2,FALSE)&amp;"R"</f>
         <v>6R</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="10" t="str">
-        <f>RIGHT(D8,LEN(D8)-26)</f>
+      <c r="E8" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>Lord Vladisar</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="8" t="str">
+      <c r="G8" s="2" t="str">
         <f>VLOOKUP(F8,zone!A:B,2,FALSE)</f>
         <v>Bone Marches</v>
       </c>
@@ -1612,27 +1611,27 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>30</v>
       </c>
-      <c r="C9" s="9" t="str">
+      <c r="C9" s="3" t="str">
         <f>VLOOKUP(B9,config!A:B,2,FALSE)&amp;"R"</f>
         <v>7R</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="10" t="str">
-        <f t="shared" ref="E9:E28" si="0">RIGHT(D9,LEN(D9)-26)</f>
+      <c r="E9" s="4" t="str">
+        <f t="shared" ref="E9:E32" si="1">RIGHT(D9,LEN(D9)-26)</f>
         <v>Gravelord Thaniloth</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="8" t="str">
+      <c r="G9" s="2" t="str">
         <f>VLOOKUP(F9,zone!A:B,2,FALSE)</f>
         <v>Bone Marches</v>
       </c>
@@ -1644,7 +1643,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="2">
@@ -1658,13 +1657,13 @@
         <v>21</v>
       </c>
       <c r="E10" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Chief Zahak</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="8" t="str">
+      <c r="G10" s="2" t="str">
         <f>VLOOKUP(F10,zone!A:B,2,FALSE)</f>
         <v>Pandemonium</v>
       </c>
@@ -1676,7 +1675,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="2">
@@ -1690,13 +1689,13 @@
         <v>23</v>
       </c>
       <c r="E11" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Chieftain Arkath</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="8" t="str">
+      <c r="G11" s="2" t="str">
         <f>VLOOKUP(F11,zone!A:B,2,FALSE)</f>
         <v>Pandemonium</v>
       </c>
@@ -1708,7 +1707,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2">
@@ -1722,13 +1721,13 @@
         <v>24</v>
       </c>
       <c r="E12" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dark Father Jalgon</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="8" t="str">
+      <c r="G12" s="2" t="str">
         <f>VLOOKUP(F12,zone!A:B,2,FALSE)</f>
         <v>Pandemonium</v>
       </c>
@@ -1740,7 +1739,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="2">
@@ -1754,13 +1753,13 @@
         <v>25</v>
       </c>
       <c r="E13" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Deurithon the Sealed</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="8" t="str">
+      <c r="G13" s="2" t="str">
         <f>VLOOKUP(F13,zone!A:B,2,FALSE)</f>
         <v>Pandemonium</v>
       </c>
@@ -1772,7 +1771,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="2">
@@ -1786,13 +1785,13 @@
         <v>26</v>
       </c>
       <c r="E14" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Ogdraal-Thiatluu</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="8" t="str">
+      <c r="G14" s="2" t="str">
         <f>VLOOKUP(F14,zone!A:B,2,FALSE)</f>
         <v>Pandemonium</v>
       </c>
@@ -1804,7 +1803,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="2">
@@ -1818,13 +1817,13 @@
         <v>27</v>
       </c>
       <c r="E15" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Commander Esten</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="8" t="str">
+      <c r="G15" s="2" t="str">
         <f>VLOOKUP(F15,zone!A:B,2,FALSE)</f>
         <v>Pandemonium</v>
       </c>
@@ -1836,7 +1835,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="2">
@@ -1850,13 +1849,13 @@
         <v>29</v>
       </c>
       <c r="E16" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Cindermaw</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="8" t="str">
+      <c r="G16" s="2" t="str">
         <f>VLOOKUP(F16,zone!A:B,2,FALSE)</f>
         <v>Southern Battleground</v>
       </c>
@@ -1868,7 +1867,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="2">
@@ -1882,13 +1881,13 @@
         <v>31</v>
       </c>
       <c r="E17" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Matron Avarissa</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="8" t="str">
+      <c r="G17" s="2" t="str">
         <f>VLOOKUP(F17,zone!A:B,2,FALSE)</f>
         <v>Southern Battleground</v>
       </c>
@@ -1900,7 +1899,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="2">
@@ -1914,13 +1913,13 @@
         <v>32</v>
       </c>
       <c r="E18" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Zaurn-Grethod</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="8" t="str">
+      <c r="G18" s="2" t="str">
         <f>VLOOKUP(F18,zone!A:B,2,FALSE)</f>
         <v>Southern Battleground</v>
       </c>
@@ -1932,7 +1931,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="2">
@@ -1946,13 +1945,13 @@
         <v>33</v>
       </c>
       <c r="E19" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>G'luulofthok</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="8" t="str">
+      <c r="G19" s="2" t="str">
         <f>VLOOKUP(F19,zone!A:B,2,FALSE)</f>
         <v>Southern Battleground</v>
       </c>
@@ -1964,7 +1963,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="2">
@@ -1978,13 +1977,13 @@
         <v>34</v>
       </c>
       <c r="E20" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Hzagra-Druun-Sek</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="8" t="str">
+      <c r="G20" s="2" t="str">
         <f>VLOOKUP(F20,zone!A:B,2,FALSE)</f>
         <v>Southern Battleground</v>
       </c>
@@ -1996,7 +1995,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="2">
@@ -2010,13 +2009,13 @@
         <v>35</v>
       </c>
       <c r="E21" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Raalutgoz-Daruumat</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="8" t="str">
+      <c r="G21" s="2" t="str">
         <f>VLOOKUP(F21,zone!A:B,2,FALSE)</f>
         <v>Southern Battleground</v>
       </c>
@@ -2028,7 +2027,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="2">
@@ -2042,13 +2041,13 @@
         <v>36</v>
       </c>
       <c r="E22" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Vrellict The Diabolist</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="8" t="str">
+      <c r="G22" s="2" t="str">
         <f>VLOOKUP(F22,zone!A:B,2,FALSE)</f>
         <v>Southern Battleground</v>
       </c>
@@ -2060,7 +2059,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="2">
@@ -2074,13 +2073,13 @@
         <v>37</v>
       </c>
       <c r="E23" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dranneth-varr</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="8" t="str">
+      <c r="G23" s="2" t="str">
         <f>VLOOKUP(F23,zone!A:B,2,FALSE)</f>
         <v>Southern Battleground</v>
       </c>
@@ -2092,7 +2091,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="2">
@@ -2106,13 +2105,13 @@
         <v>38</v>
       </c>
       <c r="E24" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Gar'quee the Forlorn</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="8" t="str">
+      <c r="G24" s="2" t="str">
         <f>VLOOKUP(F24,zone!A:B,2,FALSE)</f>
         <v>Southern Battleground</v>
       </c>
@@ -2124,7 +2123,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="2">
@@ -2138,13 +2137,13 @@
         <v>39</v>
       </c>
       <c r="E25" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Banelord Z'laarsu</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="8" t="str">
+      <c r="G25" s="2" t="str">
         <f>VLOOKUP(F25,zone!A:B,2,FALSE)</f>
         <v>Southern Battleground</v>
       </c>
@@ -2156,7 +2155,7 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="2">
@@ -2170,13 +2169,13 @@
         <v>41</v>
       </c>
       <c r="E26" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Xarnaag the Shatterer</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="8" t="str">
+      <c r="G26" s="2" t="str">
         <f>VLOOKUP(F26,zone!A:B,2,FALSE)</f>
         <v>Aeran Belendor</v>
       </c>
@@ -2188,13 +2187,13 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B27" s="2">
         <v>10</v>
       </c>
-      <c r="C27" s="9" t="str">
+      <c r="C27" s="3" t="str">
         <f>VLOOKUP(B27,config!A:B,2,FALSE)&amp;"R"</f>
         <v>6R</v>
       </c>
@@ -2202,13 +2201,13 @@
         <v>43</v>
       </c>
       <c r="E27" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Doombringer Naerithyl</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G27" s="8" t="str">
+      <c r="G27" s="2" t="str">
         <f>VLOOKUP(F27,zone!A:B,2,FALSE)</f>
         <v>Aeran Belendor</v>
       </c>
@@ -2220,7 +2219,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="2">
@@ -2234,13 +2233,13 @@
         <v>44</v>
       </c>
       <c r="E28" s="4" t="str">
-        <f>RIGHT(D28,LEN(D28)-26)</f>
+        <f t="shared" si="1"/>
         <v>Elrogil Anfallon</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G28" s="8" t="str">
+      <c r="G28" s="2" t="str">
         <f>VLOOKUP(F28,zone!A:B,2,FALSE)</f>
         <v>Aerath Hellendroth</v>
       </c>
@@ -2252,7 +2251,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="2">
@@ -2266,13 +2265,13 @@
         <v>46</v>
       </c>
       <c r="E29" s="4" t="str">
-        <f>RIGHT(D29,LEN(D29)-26)</f>
+        <f t="shared" si="1"/>
         <v>Uandir the Butcher</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="8" t="str">
+      <c r="G29" s="2" t="str">
         <f>VLOOKUP(F29,zone!A:B,2,FALSE)</f>
         <v>Aerath Hellendroth</v>
       </c>
@@ -2284,7 +2283,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="2">
@@ -2298,13 +2297,13 @@
         <v>47</v>
       </c>
       <c r="E30" s="4" t="str">
-        <f>RIGHT(D30,LEN(D30)-26)</f>
+        <f t="shared" si="1"/>
         <v>Malion Ingloridan</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="8" t="str">
+      <c r="G30" s="2" t="str">
         <f>VLOOKUP(F30,zone!A:B,2,FALSE)</f>
         <v>Aerath Hellendroth</v>
       </c>
@@ -2316,7 +2315,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="2">
@@ -2330,13 +2329,13 @@
         <v>48</v>
       </c>
       <c r="E31" s="4" t="str">
-        <f>RIGHT(D31,LEN(D31)-26)</f>
+        <f t="shared" si="1"/>
         <v>Sulegnach Spinethirst</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="8" t="str">
+      <c r="G31" s="2" t="str">
         <f>VLOOKUP(F31,zone!A:B,2,FALSE)</f>
         <v>Aerath Hellendroth</v>
       </c>
@@ -2348,7 +2347,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="2">
@@ -2362,13 +2361,13 @@
         <v>49</v>
       </c>
       <c r="E32" s="4" t="str">
-        <f>RIGHT(D32,LEN(D32)-26)</f>
+        <f t="shared" si="1"/>
         <v>Tch'lortklaz The Beckoned</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="8" t="str">
+      <c r="G32" s="2" t="str">
         <f>VLOOKUP(F32,zone!A:B,2,FALSE)</f>
         <v>Aerath Hellendroth</v>
       </c>
@@ -2379,18 +2378,178 @@
         <v>0</v>
       </c>
     </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3" t="str">
+        <f>VLOOKUP(B33,config!A:B,2,FALSE)&amp;"R"</f>
+        <v>5R</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="4" t="str">
+        <f>RIGHT(D33,LEN(D33)-26)</f>
+        <v>Captain Skarduhl</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="2" t="str">
+        <f>VLOOKUP(F33,zone!A:B,2,FALSE)</f>
+        <v>Fellgrim Forest</v>
+      </c>
+      <c r="H33" s="2">
+        <v>62620</v>
+      </c>
+      <c r="I33" s="2">
+        <v>50900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="2">
+        <v>5</v>
+      </c>
+      <c r="C34" s="3" t="str">
+        <f>VLOOKUP(B34,config!A:B,2,FALSE)&amp;"R"</f>
+        <v>5R</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="4" t="str">
+        <f>RIGHT(D34,LEN(D34)-26)</f>
+        <v>Graufnod</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="2" t="str">
+        <f>VLOOKUP(F34,zone!A:B,2,FALSE)</f>
+        <v>Fellgrim Forest</v>
+      </c>
+      <c r="H34" s="2">
+        <v>65363</v>
+      </c>
+      <c r="I34" s="2">
+        <v>50800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="2">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="str">
+        <f>VLOOKUP(B35,config!A:B,2,FALSE)&amp;"R"</f>
+        <v>5R</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="4" t="str">
+        <f>RIGHT(D35,LEN(D35)-26)</f>
+        <v>Yikk</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="2" t="str">
+        <f>VLOOKUP(F35,zone!A:B,2,FALSE)</f>
+        <v>Fellgrim Forest</v>
+      </c>
+      <c r="H35" s="2">
+        <v>64966</v>
+      </c>
+      <c r="I35" s="2">
+        <v>51700</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="2">
+        <v>10</v>
+      </c>
+      <c r="C36" s="3" t="str">
+        <f>VLOOKUP(B36,config!A:B,2,FALSE)&amp;"R"</f>
+        <v>6R</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="4" t="str">
+        <f>RIGHT(D36,LEN(D36)-26)</f>
+        <v>Gund Earthshaker</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="2" t="str">
+        <f>VLOOKUP(F36,zone!A:B,2,FALSE)</f>
+        <v>Fellgrim Forest</v>
+      </c>
+      <c r="H36" s="2">
+        <v>63181</v>
+      </c>
+      <c r="I36" s="2">
+        <v>51300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="2">
+        <v>10</v>
+      </c>
+      <c r="C37" s="3" t="str">
+        <f>VLOOKUP(B37,config!A:B,2,FALSE)&amp;"R"</f>
+        <v>6R</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="4" t="str">
+        <f>RIGHT(D37,LEN(D37)-26)</f>
+        <v>Chief Duruuk</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="2" t="str">
+        <f>VLOOKUP(F37,zone!A:B,2,FALSE)</f>
+        <v>Fellgrim Forest</v>
+      </c>
+      <c r="H37" s="2">
+        <v>64062</v>
+      </c>
+      <c r="I37" s="2">
+        <v>52500</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6 F7:F9 F10:F12 F13:F15 F16:F23 F24:F27 F28:F32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F32 F2:F6 F7:F9 F10:F12 F13:F15 F16:F23 F24:F27 F28:F31 F33:F35 F36:F37">
       <formula1>zone!$A:$A</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9 A15 A25 A26 A2:A8 A10:A14 A16:A24 A27:A30 A31:A32">
       <formula1>buy!$A:$A</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5:B6 B7:B9 B10:B26 B27:B32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B32 B5:B6 B7:B9 B10:B26 B27:B31 B33:B35 B36:B37">
       <formula1>pay!$A:$A</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6 G7:G27 G28:G32"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6 G7:G27 G28:G31 G32:G35 G36:G37"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2434,7 +2593,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -2540,12 +2699,12 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
     <col min="2" max="2" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2554,7 +2713,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2562,23 +2721,23 @@
         <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2586,31 +2745,31 @@
         <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2618,7 +2777,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2626,103 +2785,103 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2730,39 +2889,39 @@
         <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
